--- a/RAS05-Pulse10/RAS5_pulse10.xlsx
+++ b/RAS05-Pulse10/RAS5_pulse10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/cloudstor/Shared/RAS_QCd_final_formatted/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sha359/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A827A265-E57C-FE43-83A2-0E87FB8038E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000C77FD-0B3B-D746-BB73-BF30E470EB35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="2320" windowWidth="25880" windowHeight="17920" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="460" windowWidth="19560" windowHeight="13040" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep" sheetId="1" r:id="rId1"/>
@@ -33,16 +33,8 @@
     <definedName name="RAS5_tCO2" localSheetId="3">'CO2'!$D$6:$J$297</definedName>
     <definedName name="ss2013_v06RAS5Hydro" localSheetId="1">nutrients!$A$20:$I$53</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -2884,7 +2876,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3228,7 +3220,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3536,7 +3528,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15166,8 +15158,8 @@
   </sheetPr>
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="W3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -15705,14 +15697,14 @@
         <v>2286.5595506936093</v>
       </c>
       <c r="Y10" s="103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="115">
         <f>'CO2'!K9</f>
         <v>2343.9111286036891</v>
       </c>
       <c r="AA10" s="103">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="103" customFormat="1" ht="15">
@@ -15787,14 +15779,14 @@
         <v>2296.7510667948386</v>
       </c>
       <c r="Y11" s="103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="115">
         <f>'CO2'!K10</f>
         <v>2198.0371551749254</v>
       </c>
       <c r="AA11" s="103">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="103" customFormat="1" ht="15">
@@ -15869,14 +15861,14 @@
         <v>2291.6288111467752</v>
       </c>
       <c r="Y12" s="103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="115">
         <f>'CO2'!K11</f>
         <v>2139.5073223227309</v>
       </c>
       <c r="AA12" s="103">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="103" customFormat="1" ht="15">
@@ -15951,7 +15943,7 @@
         <v>2294.5405323060759</v>
       </c>
       <c r="Y13" s="103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="115">
         <f>'CO2'!K12</f>
@@ -16033,7 +16025,7 @@
         <v>2272.0765907685122</v>
       </c>
       <c r="Y14" s="103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z14" s="115">
         <f>'CO2'!K13</f>
@@ -16115,14 +16107,14 @@
         <v>2303.5090768916748</v>
       </c>
       <c r="Y15" s="103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="115">
         <f>'CO2'!K14</f>
         <v>2131.0752459542205</v>
       </c>
       <c r="AA15" s="103">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="103" customFormat="1" ht="15">
@@ -16197,7 +16189,7 @@
         <v>2264.1112350981771</v>
       </c>
       <c r="Y16" s="103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z16" s="115">
         <f>'CO2'!K15</f>
@@ -16279,7 +16271,7 @@
         <v>2266.3333812581723</v>
       </c>
       <c r="Y17" s="103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z17" s="115">
         <f>'CO2'!K16</f>
@@ -16361,7 +16353,7 @@
         <v>2267.9372118742726</v>
       </c>
       <c r="Y18" s="103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z18" s="115">
         <f>'CO2'!K17</f>
@@ -16443,7 +16435,7 @@
         <v>2258.2522973296363</v>
       </c>
       <c r="Y19" s="103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z19" s="115">
         <f>'CO2'!K18</f>
@@ -16525,7 +16517,7 @@
         <v>2299.887204717144</v>
       </c>
       <c r="Y20" s="103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z20" s="115">
         <f>'CO2'!K19</f>
